--- a/website/vix/data/correlation.xlsx
+++ b/website/vix/data/correlation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>VXGDX</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>OVX</t>
+  </si>
+  <si>
+    <t>VXEFA</t>
   </si>
   <si>
     <t>TYVIX</t>
@@ -410,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,538 +459,624 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="E2">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.36</v>
       </c>
       <c r="I2">
-        <v>0.88</v>
+        <v>0.72</v>
       </c>
       <c r="J2">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="K2">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="L2">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="M2">
-        <v>0.99</v>
+        <v>0.55</v>
       </c>
       <c r="N2">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="D3">
-        <v>0.92</v>
+        <v>0.32</v>
       </c>
       <c r="E3">
-        <v>0.47</v>
+        <v>0.34</v>
       </c>
       <c r="F3">
-        <v>0.79</v>
+        <v>0.17</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H3">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="I3">
-        <v>0.96</v>
+        <v>0.61</v>
       </c>
       <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <v>0.24</v>
+      </c>
+      <c r="L3">
+        <v>0.11</v>
+      </c>
+      <c r="M3">
         <v>0.67</v>
       </c>
-      <c r="K3">
-        <v>0.75</v>
-      </c>
-      <c r="L3">
-        <v>0.46</v>
-      </c>
-      <c r="M3">
-        <v>0.85</v>
-      </c>
       <c r="N3">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.72</v>
+      </c>
+      <c r="O3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.76</v>
+        <v>0.31</v>
       </c>
       <c r="C4">
+        <v>0.28</v>
+      </c>
+      <c r="E4">
+        <v>0.08</v>
+      </c>
+      <c r="F4">
+        <v>0.28</v>
+      </c>
+      <c r="G4">
+        <v>0.06</v>
+      </c>
+      <c r="H4">
+        <v>0.91</v>
+      </c>
+      <c r="I4">
         <v>0.78</v>
       </c>
-      <c r="E4">
-        <v>0.05</v>
-      </c>
-      <c r="F4">
-        <v>0.61</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
+        <v>0.06</v>
+      </c>
+      <c r="K4">
+        <v>0.59</v>
+      </c>
+      <c r="L4">
         <v>0.02</v>
       </c>
-      <c r="H4">
-        <v>0.85</v>
-      </c>
-      <c r="I4">
-        <v>0.92</v>
-      </c>
-      <c r="J4">
-        <v>0.04</v>
-      </c>
-      <c r="K4">
-        <v>0.65</v>
-      </c>
-      <c r="L4">
-        <v>0.31</v>
-      </c>
       <c r="M4">
-        <v>0.74</v>
+        <v>0.23</v>
       </c>
       <c r="N4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C5">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="D5">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F5">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>0.93</v>
+      </c>
+      <c r="I5">
+        <v>0.82</v>
+      </c>
+      <c r="J5">
+        <v>0.39</v>
+      </c>
+      <c r="K5">
+        <v>0.51</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0.58</v>
-      </c>
-      <c r="I5">
-        <v>0.71</v>
-      </c>
-      <c r="J5">
+      <c r="M5">
+        <v>0.21</v>
+      </c>
+      <c r="N5">
+        <v>0.92</v>
+      </c>
+      <c r="O5">
         <v>0.05</v>
       </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
-      <c r="L5">
-        <v>0.16</v>
-      </c>
-      <c r="M5">
-        <v>0.45</v>
-      </c>
-      <c r="N5">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="C6">
-        <v>0.72</v>
+        <v>0.03</v>
       </c>
       <c r="D6">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="E6">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="G6">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="H6">
         <v>0.57</v>
       </c>
       <c r="I6">
-        <v>0.77</v>
+        <v>0.53</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="L6">
-        <v>0.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M6">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="N6">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.59</v>
+      </c>
+      <c r="O6">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.27</v>
+        <v>0.58</v>
       </c>
       <c r="C7">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="E7">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="F7">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H7">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="I7">
-        <v>0.54</v>
+        <v>0.82</v>
       </c>
       <c r="J7">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="K7">
-        <v>0.13</v>
+        <v>0.62</v>
       </c>
       <c r="L7">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.89</v>
+      </c>
+      <c r="O7">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.51</v>
       </c>
       <c r="D8">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="E8">
+        <v>0.84</v>
+      </c>
+      <c r="F8">
         <v>0.54</v>
       </c>
-      <c r="F8">
-        <v>0.53</v>
-      </c>
       <c r="G8">
-        <v>0.31</v>
+        <v>0.79</v>
       </c>
       <c r="I8">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J8">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K8">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="L8">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="M8">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="N8">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.96</v>
+      </c>
+      <c r="O8">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="C9">
+        <v>0.51</v>
+      </c>
+      <c r="D9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="F9">
+        <v>0.42</v>
+      </c>
+      <c r="G9">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.89</v>
+      </c>
+      <c r="J9">
         <v>0.83</v>
       </c>
-      <c r="D9">
-        <v>0.84</v>
-      </c>
-      <c r="E9">
-        <v>0.59</v>
-      </c>
-      <c r="F9">
-        <v>0.73</v>
-      </c>
-      <c r="G9">
-        <v>0.41</v>
-      </c>
-      <c r="H9">
-        <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="K9">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L9">
-        <v>0.43</v>
+        <v>0.01</v>
       </c>
       <c r="M9">
-        <v>0.74</v>
+        <v>0.97</v>
       </c>
       <c r="N9">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.97</v>
+      </c>
+      <c r="O9">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="C10">
-        <v>0.57</v>
+        <v>0.24</v>
       </c>
       <c r="D10">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E10">
+        <v>0.91</v>
+      </c>
+      <c r="F10">
         <v>0.76</v>
       </c>
-      <c r="F10">
-        <v>0.61</v>
-      </c>
       <c r="G10">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="H10">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="I10">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="K10">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="L10">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.59</v>
+        <v>0.18</v>
       </c>
       <c r="N10">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.89</v>
+      </c>
+      <c r="O10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="C11">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="E11">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="F11">
+        <v>0.83</v>
+      </c>
+      <c r="G11">
+        <v>0.89</v>
+      </c>
+      <c r="H11">
         <v>0.8</v>
       </c>
-      <c r="G11">
-        <v>0.73</v>
-      </c>
-      <c r="H11">
-        <v>0.65</v>
-      </c>
       <c r="I11">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J11">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="L11">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="M11">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="N11">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.77</v>
+      </c>
+      <c r="O11">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.44</v>
+        <v>-0.21</v>
       </c>
       <c r="C12">
-        <v>0.42</v>
+        <v>-0.02</v>
       </c>
       <c r="D12">
-        <v>0.36</v>
+        <v>-0.18</v>
       </c>
       <c r="E12">
-        <v>0.17</v>
+        <v>-0.38</v>
       </c>
       <c r="F12">
-        <v>0.29</v>
+        <v>-0.18</v>
       </c>
       <c r="G12">
-        <v>0.18</v>
+        <v>-0.37</v>
       </c>
       <c r="H12">
-        <v>0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="I12">
-        <v>0.19</v>
+        <v>-0.55</v>
       </c>
       <c r="J12">
-        <v>0.21</v>
+        <v>-0.47</v>
       </c>
       <c r="K12">
-        <v>0.4</v>
+        <v>-0.22</v>
       </c>
       <c r="M12">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.03</v>
+      </c>
+      <c r="O12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
       <c r="C13">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="D13">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="E13">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.22</v>
+        <v>0.74</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="I13">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J13">
-        <v>0.58</v>
+        <v>0.76</v>
       </c>
       <c r="K13">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="L13">
-        <v>0.27</v>
+        <v>-0.41</v>
       </c>
       <c r="N13">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.93</v>
+      </c>
+      <c r="O13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.38</v>
+        <v>0.74</v>
       </c>
       <c r="C14">
+        <v>0.52</v>
+      </c>
+      <c r="D14">
+        <v>0.66</v>
+      </c>
+      <c r="E14">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.53</v>
+      </c>
+      <c r="G14">
+        <v>0.78</v>
+      </c>
+      <c r="H14">
+        <v>0.88</v>
+      </c>
+      <c r="I14">
+        <v>0.86</v>
+      </c>
+      <c r="J14">
+        <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>0.72</v>
+      </c>
+      <c r="L14">
+        <v>-0.52</v>
+      </c>
+      <c r="M14">
+        <v>0.85</v>
+      </c>
+      <c r="O14">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.19</v>
+      </c>
+      <c r="C15">
+        <v>0.17</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15">
         <v>0.51</v>
       </c>
-      <c r="D14">
-        <v>0.71</v>
-      </c>
-      <c r="E14">
-        <v>0.71</v>
-      </c>
-      <c r="F14">
-        <v>0.66</v>
-      </c>
-      <c r="G14">
-        <v>0.64</v>
-      </c>
-      <c r="H14">
-        <v>0.48</v>
-      </c>
-      <c r="I14">
-        <v>0.62</v>
-      </c>
-      <c r="J14">
-        <v>0.71</v>
-      </c>
-      <c r="K14">
-        <v>0.71</v>
-      </c>
-      <c r="L14">
-        <v>0.17</v>
-      </c>
-      <c r="M14">
+      <c r="F15">
+        <v>0.57</v>
+      </c>
+      <c r="G15">
+        <v>0.55</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
         <v>0.33</v>
+      </c>
+      <c r="J15">
+        <v>0.49</v>
+      </c>
+      <c r="K15">
+        <v>0.73</v>
+      </c>
+      <c r="L15">
+        <v>0.34</v>
+      </c>
+      <c r="M15">
+        <v>0.46</v>
+      </c>
+      <c r="N15">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
